--- a/examples/sample1.xlsx
+++ b/examples/sample1.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8320480F-C9C3-436A-A74E-2E5429AD0EA4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE35BA-8316-4438-8600-2A8F0819D0A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="value_test" sheetId="1" r:id="rId1"/>
+    <sheet name="ref_test" sheetId="3" r:id="rId2"/>
+    <sheet name="all_colors" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +53,54 @@
   </si>
   <si>
     <t>(2,3,4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">green </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>white</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref(all_colors, str)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lily</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -437,4 +487,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486EA768-B12A-42D8-9559-320F4C946A76}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC3F9FD-9001-4893-89AE-89C46E1B88BE}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>255</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>255</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>255</v>
+      </c>
+      <c r="C8">
+        <v>255</v>
+      </c>
+      <c r="D8">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/examples/sample1.xlsx
+++ b/examples/sample1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEE35BA-8316-4438-8600-2A8F0819D0A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6E51C-6730-440B-A240-DD70B1E0092A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="value_test" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>the_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(all_colors, str)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -428,13 +424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -450,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -458,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -466,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -474,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -494,12 +490,12 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -507,15 +503,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -523,7 +519,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -531,7 +527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -539,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -547,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -555,17 +551,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -573,13 +570,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC3F9FD-9001-4893-89AE-89C46E1B88BE}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -593,7 +590,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -607,7 +604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -621,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -635,7 +632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -649,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -663,7 +660,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>

--- a/examples/sample1.xlsx
+++ b/examples/sample1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F6E51C-6730-440B-A240-DD70B1E0092A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2017F640-05D5-4DD8-ABB7-DD618501AFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="1425" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-7890" windowWidth="21820" windowHeight="38020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="value_test" sheetId="1" r:id="rId1"/>
@@ -40,22 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list(int, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,2,3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(3,4,5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2,3,4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>color_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +81,22 @@
   </si>
   <si>
     <t>lily</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["int", 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,4,5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,13 +424,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,15 +438,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -454,28 +454,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -489,74 +489,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486EA768-B12A-42D8-9559-320F4C946A76}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -571,28 +571,28 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -604,9 +604,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -618,9 +618,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>255</v>
@@ -632,9 +632,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -646,9 +646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -660,9 +660,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>255</v>
